--- a/Data/Bilançolar/AKENR.xlsx
+++ b/Data/Bilançolar/AKENR.xlsx
@@ -20520,7 +20520,7 @@
         <v>65695243</v>
       </c>
       <c r="H115" t="n">
-        <v>292399543</v>
+        <v>292399545</v>
       </c>
       <c r="I115" t="n">
         <v>226436061</v>
